--- a/uploads/ClasslistGeneratorTemplate.xlsx
+++ b/uploads/ClasslistGeneratorTemplate.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Connor/Documents/ClassGenBeforeFlaskIntegration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC844FF-19D5-47CA-9486-295B6BE73D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="1260" windowWidth="25360" windowHeight="15540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradelist Template" sheetId="1" r:id="rId1"/>
@@ -22,17 +23,12 @@
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="83">
   <si>
     <t>Teacher Last Name</t>
   </si>
@@ -241,9 +237,15 @@
     <t>Radillo</t>
   </si>
   <si>
+    <t>Maritha</t>
+  </si>
+  <si>
     <t>Vinay</t>
   </si>
   <si>
+    <t>Quintell</t>
+  </si>
+  <si>
     <t>Jones</t>
   </si>
   <si>
@@ -274,94 +276,13 @@
     <t>Future Teacher Last Name (N/A If Unknown)</t>
   </si>
   <si>
-    <t>Piazza</t>
-  </si>
-  <si>
     <t>Please List All Future Teacher Names Here</t>
-  </si>
-  <si>
-    <t>Joesaphine</t>
-  </si>
-  <si>
-    <t>Yousefine</t>
-  </si>
-  <si>
-    <t>Alek</t>
-  </si>
-  <si>
-    <t>Paco</t>
-  </si>
-  <si>
-    <t>Laurina</t>
-  </si>
-  <si>
-    <t>Daphine</t>
-  </si>
-  <si>
-    <t>Lucia</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Jaila</t>
-  </si>
-  <si>
-    <t>Gorgina</t>
-  </si>
-  <si>
-    <t>Marty</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Cassy</t>
-  </si>
-  <si>
-    <t>Carla</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Jacie</t>
-  </si>
-  <si>
-    <t>Darla</t>
-  </si>
-  <si>
-    <t>Samitha</t>
-  </si>
-  <si>
-    <t>Sara</t>
-  </si>
-  <si>
-    <t>Caroline</t>
-  </si>
-  <si>
-    <t>Michaela</t>
-  </si>
-  <si>
-    <t>Michaelaphine</t>
-  </si>
-  <si>
-    <t>Laurine</t>
-  </si>
-  <si>
-    <t>Dana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,8 +305,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="Times New Roman"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -424,9 +346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,28 +660,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="39.1640625" customWidth="1"/>
-    <col min="9" max="9" width="38.83203125" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -784,13 +703,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -819,7 +738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -839,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>11</v>
@@ -848,7 +767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -868,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
@@ -877,7 +796,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -903,10 +822,10 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -926,16 +845,16 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -955,16 +874,13 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="I7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -990,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1016,12 +932,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1036,13 +952,13 @@
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1068,12 +984,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -1088,13 +1004,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1036,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1146,12 +1062,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -1166,13 +1082,13 @@
         <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1224,12 +1140,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
@@ -1244,18 +1160,18 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -1270,18 +1186,18 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -1296,13 +1212,13 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1328,12 +1244,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
@@ -1348,13 +1264,13 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1380,12 +1296,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>59</v>
@@ -1400,18 +1316,18 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
         <v>61</v>
@@ -1426,18 +1342,18 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
         <v>63</v>
@@ -1452,18 +1368,18 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
@@ -1478,18 +1394,18 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -1504,21 +1420,21 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1530,21 +1446,21 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -1556,18 +1472,18 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -1582,13 +1498,13 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1614,7 +1530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1640,12 +1556,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -1660,13 +1576,13 @@
         <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1692,7 +1608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1718,7 +1634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1770,9 +1686,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>28</v>
@@ -1796,9 +1712,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
         <v>30</v>
@@ -1822,9 +1738,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
         <v>32</v>
@@ -1848,9 +1764,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -1874,9 +1790,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -1900,9 +1816,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
@@ -1926,9 +1842,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -1952,9 +1868,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -1978,12 +1894,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -1998,15 +1914,15 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -2030,9 +1946,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -2056,12 +1972,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
@@ -2076,15 +1992,15 @@
         <v>3</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -2105,15 +2021,15 @@
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
         <v>57</v>
@@ -2128,15 +2044,15 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
@@ -2160,9 +2076,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
@@ -2186,9 +2102,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
@@ -2212,9 +2128,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -2238,9 +2154,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>67</v>
@@ -2264,12 +2180,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -2284,15 +2200,15 @@
         <v>3</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
         <v>30</v>
@@ -2316,12 +2232,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
@@ -2336,15 +2252,15 @@
         <v>2</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
         <v>35</v>
@@ -2369,9 +2285,9 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
@@ -2395,9 +2311,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
         <v>39</v>
@@ -2421,9 +2337,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
         <v>41</v>
@@ -2447,9 +2363,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
@@ -2473,9 +2389,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
@@ -2499,9 +2415,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
         <v>48</v>
@@ -2525,9 +2441,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
         <v>50</v>
@@ -2551,12 +2467,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="C69" t="s">
         <v>53</v>
@@ -2571,15 +2487,15 @@
         <v>3</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
         <v>54</v>
@@ -2600,15 +2516,15 @@
         <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="C71" t="s">
         <v>57</v>
@@ -2623,15 +2539,15 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>58</v>
@@ -2655,9 +2571,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
@@ -2681,9 +2597,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>62</v>
@@ -2707,9 +2623,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>64</v>
@@ -2733,9 +2649,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>67</v>
@@ -2759,12 +2675,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
         <v>65</v>
@@ -2785,12 +2701,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -2811,9 +2727,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -2837,9 +2753,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
         <v>12</v>
@@ -2863,9 +2779,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
@@ -2889,9 +2805,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
@@ -2915,12 +2831,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B83" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>20</v>
@@ -2935,15 +2851,15 @@
         <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
@@ -2967,9 +2883,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -2993,9 +2909,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B86" t="s">
         <v>26</v>
@@ -3019,9 +2935,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B87" t="s">
         <v>28</v>
@@ -3045,12 +2961,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B88" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="C88" t="s">
         <v>31</v>
@@ -3065,15 +2981,15 @@
         <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
@@ -3097,9 +3013,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B90" t="s">
         <v>35</v>
@@ -3123,9 +3039,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
         <v>37</v>
@@ -3149,9 +3065,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
         <v>39</v>
@@ -3175,9 +3091,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
@@ -3201,9 +3117,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B94" t="s">
         <v>43</v>
@@ -3227,9 +3143,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B95" t="s">
         <v>28</v>
@@ -3253,12 +3169,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
         <v>31</v>
@@ -3273,15 +3189,15 @@
         <v>3</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B97" t="s">
         <v>32</v>
@@ -3305,9 +3221,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
         <v>35</v>
@@ -3331,9 +3247,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B99" t="s">
         <v>37</v>
@@ -3357,9 +3273,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B100" t="s">
         <v>39</v>
@@ -3383,9 +3299,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
         <v>41</v>
@@ -3409,9 +3325,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B102" t="s">
         <v>43</v>
@@ -3435,9 +3351,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
         <v>46</v>
@@ -3461,9 +3377,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -3487,12 +3403,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
         <v>51</v>
@@ -3507,15 +3423,15 @@
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H105" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B106" t="s">
         <v>52</v>
@@ -3539,12 +3455,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="C107" t="s">
         <v>55</v>
@@ -3559,15 +3475,15 @@
         <v>1</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H107" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B108" t="s">
         <v>56</v>
@@ -3591,9 +3507,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B109" t="s">
         <v>58</v>
@@ -3617,9 +3533,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B110" t="s">
         <v>60</v>
@@ -3643,9 +3559,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B111" t="s">
         <v>62</v>
@@ -3669,9 +3585,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B112" t="s">
         <v>64</v>
@@ -3695,9 +3611,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B113" t="s">
         <v>67</v>
@@ -3723,5 +3639,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>